--- a/ActualDataCurrentTo13Oct.xlsx
+++ b/ActualDataCurrentTo13Oct.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndaxvig\OneDrive - cord.edu\Backup_18Aug2021\Teaching\Fall_2021\FL21_DATA317\ElectricalForecastingChallenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoreyumba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A9E630-A7EA-5143-923F-57A7F84C3972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="6900" yWindow="4300" windowWidth="20500" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,19 +360,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44445</v>
       </c>
@@ -411,7 +412,7 @@
         <v>1548.72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44446</v>
       </c>
@@ -431,7 +432,7 @@
         <v>1546.31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44447</v>
       </c>
@@ -451,7 +452,7 @@
         <v>1497.8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44448</v>
       </c>
@@ -471,7 +472,7 @@
         <v>1533.56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44449</v>
       </c>
@@ -491,7 +492,7 @@
         <v>1531.59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44450</v>
       </c>
@@ -511,7 +512,7 @@
         <v>1220.1400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44451</v>
       </c>
@@ -531,7 +532,7 @@
         <v>1301.3599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44452</v>
       </c>
@@ -551,7 +552,7 @@
         <v>1510.84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44453</v>
       </c>
@@ -571,7 +572,7 @@
         <v>1533.88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44454</v>
       </c>
@@ -591,7 +592,7 @@
         <v>1544.22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44455</v>
       </c>
@@ -611,7 +612,7 @@
         <v>1583.58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44456</v>
       </c>
@@ -631,7 +632,7 @@
         <v>1326.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44457</v>
       </c>
@@ -651,7 +652,7 @@
         <v>1183.1600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44458</v>
       </c>
@@ -671,7 +672,7 @@
         <v>1379.98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44459</v>
       </c>
@@ -691,7 +692,7 @@
         <v>1510.83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44460</v>
       </c>
@@ -711,7 +712,7 @@
         <v>1513.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44461</v>
       </c>
@@ -731,7 +732,7 @@
         <v>1508.41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44462</v>
       </c>
@@ -751,7 +752,7 @@
         <v>1554.05</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44463</v>
       </c>
@@ -771,7 +772,7 @@
         <v>1521.77</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44464</v>
       </c>
@@ -791,7 +792,7 @@
         <v>1175.8599999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44465</v>
       </c>
@@ -811,7 +812,7 @@
         <v>1535.7100000000023</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44466</v>
       </c>
@@ -831,7 +832,7 @@
         <v>1563.98</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44467</v>
       </c>
@@ -851,7 +852,7 @@
         <v>1586.05</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44468</v>
       </c>
@@ -871,7 +872,7 @@
         <v>1615.97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44469</v>
       </c>
@@ -891,7 +892,7 @@
         <v>1615.7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44470</v>
       </c>
@@ -911,7 +912,7 @@
         <v>1443.53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44471</v>
       </c>
@@ -931,7 +932,7 @@
         <v>1233.03</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44472</v>
       </c>
@@ -951,7 +952,7 @@
         <v>1306.8000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44473</v>
       </c>
@@ -971,7 +972,7 @@
         <v>1519.64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44474</v>
       </c>
@@ -991,7 +992,7 @@
         <v>1551.86</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44475</v>
       </c>
@@ -1011,8 +1012,8 @@
         <v>1583.59</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>44476</v>
       </c>
       <c r="B33">
@@ -1031,8 +1032,8 @@
         <v>1594.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>44477</v>
       </c>
       <c r="B34">
@@ -1051,8 +1052,8 @@
         <v>1444.66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>44478</v>
       </c>
       <c r="B35">
@@ -1071,8 +1072,8 @@
         <v>1213.3399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>44479</v>
       </c>
       <c r="B36">
@@ -1091,8 +1092,8 @@
         <v>1278.06</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>44480</v>
       </c>
       <c r="B37">
@@ -1111,8 +1112,8 @@
         <v>1505.47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>44481</v>
       </c>
       <c r="B38">
@@ -1131,8 +1132,8 @@
         <v>1467.38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>44482</v>
       </c>
       <c r="B39">
@@ -1157,18 +1158,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1401,14 +1402,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60747A2B-F2AB-4844-8EC9-94B0861CDC87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{506EDA15-7EC6-4727-BB5D-69C2B5AC0D45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1421,6 +1414,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60747A2B-F2AB-4844-8EC9-94B0861CDC87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
